--- a/data/trans_orig/P14A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3BA7C46-B4FB-4F3D-8256-AC28165A72EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{771C4AB1-1416-4170-9069-78CBCEA6A40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1016B883-AAD9-4011-8D56-1F2586704C45}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2043E77B-324C-434D-8C57-C38050AD411A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="128">
   <si>
     <t>Población que recibe medicación o terapia por anemia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -84,19 +84,19 @@
     <t>69,55%</t>
   </si>
   <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -114,19 +114,19 @@
     <t>30,45%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -135,49 +135,43 @@
     <t>88,07%</t>
   </si>
   <si>
-    <t>50,98%</t>
+    <t>41,22%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>74,95%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>49,02%</t>
+    <t>58,78%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>25,05%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -216,49 +210,49 @@
     <t>93,74%</t>
   </si>
   <si>
-    <t>74,08%</t>
+    <t>74,33%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>25,92%</t>
+    <t>25,67%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -273,19 +267,19 @@
     <t>77,31%</t>
   </si>
   <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -294,67 +288,67 @@
     <t>22,69%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>23,53%</t>
+    <t>31,54%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>76,47%</t>
+    <t>68,46%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>74,32%</t>
@@ -384,49 +378,49 @@
     <t>91,69%</t>
   </si>
   <si>
-    <t>62,38%</t>
+    <t>66,28%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>37,62%</t>
+    <t>33,72%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
 </sst>
 </file>
@@ -838,7 +832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC82CC07-466A-4042-8CFA-54DDEDD31674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DDEF98-4317-4501-A9A6-A688B42855CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1153,7 +1147,7 @@
         <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1168,13 +1162,13 @@
         <v>959</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1183,13 +1177,13 @@
         <v>3146</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1198,13 +1192,13 @@
         <v>4105</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1260,7 +1254,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1275,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1287,10 +1281,10 @@
         <v>7149</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -1302,10 +1296,10 @@
         <v>8171</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1329,7 +1323,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1338,13 +1332,13 @@
         <v>2125</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1353,13 +1347,13 @@
         <v>2125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,10 +1421,10 @@
         <v>14365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -1442,13 +1436,13 @@
         <v>75343</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -1457,13 +1451,13 @@
         <v>89708</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,13 +1472,13 @@
         <v>959</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1493,13 +1487,13 @@
         <v>20257</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -1508,13 +1502,13 @@
         <v>21216</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,7 +1564,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA18B57-8446-48A5-9A85-A5193F94ECEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4275F34-45A8-49AC-86BA-00FA6B5C4054}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1606,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1716,7 +1710,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1728,13 +1722,13 @@
         <v>27637</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -1743,13 +1737,13 @@
         <v>38000</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,7 +1764,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -1779,13 +1773,13 @@
         <v>8111</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1794,13 +1788,13 @@
         <v>8111</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,10 +1862,10 @@
         <v>6130</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -1883,13 +1877,13 @@
         <v>30352</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -1898,13 +1892,13 @@
         <v>36482</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1913,13 @@
         <v>1587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -1934,13 +1928,13 @@
         <v>10076</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -1949,13 +1943,13 @@
         <v>11663</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2005,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2026,7 +2020,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2038,10 +2032,10 @@
         <v>7951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2053,10 +2047,10 @@
         <v>8967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2080,7 +2074,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2089,13 +2083,13 @@
         <v>2747</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2104,13 +2098,13 @@
         <v>2747</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,10 +2172,10 @@
         <v>17509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2193,13 +2187,13 @@
         <v>65940</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -2208,13 +2202,13 @@
         <v>83449</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2223,13 @@
         <v>1587</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -2244,13 +2238,13 @@
         <v>20934</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -2259,13 +2253,13 @@
         <v>22521</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,7 +2315,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A17-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{771C4AB1-1416-4170-9069-78CBCEA6A40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBBAF4E-109C-4BE1-99A0-F97A6BE8D4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2043E77B-324C-434D-8C57-C38050AD411A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BC62112-F857-4AD6-A03B-5D654BDED2D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="130">
   <si>
     <t>Población que recibe medicación o terapia por anemia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -84,19 +84,19 @@
     <t>69,55%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -114,19 +114,19 @@
     <t>30,45%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -135,43 +135,49 @@
     <t>88,07%</t>
   </si>
   <si>
-    <t>41,22%</t>
+    <t>50,94%</t>
   </si>
   <si>
     <t>91,52%</t>
   </si>
   <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>74,95%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>58,78%</t>
+    <t>49,06%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>9,09%</t>
   </si>
   <si>
-    <t>25,05%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -183,13 +189,13 @@
     <t>77,09%</t>
   </si>
   <si>
-    <t>42,96%</t>
+    <t>42,41%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>48,03%</t>
+    <t>39,72%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -198,67 +204,67 @@
     <t>22,91%</t>
   </si>
   <si>
-    <t>57,04%</t>
+    <t>57,59%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>51,97%</t>
+    <t>60,28%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>74,33%</t>
+    <t>73,93%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>25,67%</t>
+    <t>26,07%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por anemia en 2015 (Tasa respuesta: 1,52%)</t>
+    <t>Población que recibe medicación o terapia por anemia en 2016 (Tasa respuesta: 1,52%)</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -267,19 +273,19 @@
     <t>77,31%</t>
   </si>
   <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -288,139 +294,139 @@
     <t>22,69%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>31,54%</t>
+    <t>20,49%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>68,46%</t>
+    <t>79,51%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>37,74%</t>
+    <t>33,28%</t>
   </si>
   <si>
     <t>76,55%</t>
   </si>
   <si>
-    <t>39,56%</t>
+    <t>41,31%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>62,26%</t>
+    <t>66,72%</t>
   </si>
   <si>
     <t>23,45%</t>
   </si>
   <si>
-    <t>60,44%</t>
+    <t>58,69%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>66,28%</t>
+    <t>61,88%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>33,72%</t>
+    <t>38,12%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DDEF98-4317-4501-A9A6-A688B42855CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41B9725-77F1-4C2F-B429-7839AFAA6538}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1147,7 +1153,7 @@
         <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1162,13 +1168,13 @@
         <v>959</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1177,13 +1183,13 @@
         <v>3146</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1192,13 +1198,13 @@
         <v>4105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1254,7 +1260,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1281,10 +1287,10 @@
         <v>7149</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -1296,10 +1302,10 @@
         <v>8171</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1323,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1332,13 +1338,13 @@
         <v>2125</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1347,13 +1353,13 @@
         <v>2125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1421,10 +1427,10 @@
         <v>14365</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -1436,13 +1442,13 @@
         <v>75343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -1451,13 +1457,13 @@
         <v>89708</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,13 +1478,13 @@
         <v>959</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1487,13 +1493,13 @@
         <v>20257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -1502,13 +1508,13 @@
         <v>21216</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,7 +1570,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4275F34-45A8-49AC-86BA-00FA6B5C4054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD5DD13-E7A1-44B9-89A0-FE6AF7FDB81F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1600,7 +1606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1710,7 +1716,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1722,13 +1728,13 @@
         <v>27637</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -1737,13 +1743,13 @@
         <v>38000</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,7 +1770,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -1773,13 +1779,13 @@
         <v>8111</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1788,13 +1794,13 @@
         <v>8111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,10 +1868,10 @@
         <v>6130</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -1877,13 +1883,13 @@
         <v>30352</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -1892,13 +1898,13 @@
         <v>36482</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1919,13 @@
         <v>1587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -1928,13 +1934,13 @@
         <v>10076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -1943,13 +1949,13 @@
         <v>11663</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +2011,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2020,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2032,10 +2038,10 @@
         <v>7951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2047,10 +2053,10 @@
         <v>8967</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2074,7 +2080,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2083,13 +2089,13 @@
         <v>2747</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2098,13 +2104,13 @@
         <v>2747</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,10 +2178,10 @@
         <v>17509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2187,13 +2193,13 @@
         <v>65940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>80</v>
@@ -2202,13 +2208,13 @@
         <v>83449</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,13 +2229,13 @@
         <v>1587</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -2238,13 +2244,13 @@
         <v>20934</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -2253,13 +2259,13 @@
         <v>22521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,7 +2321,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
